--- a/Interactions continuous variables.xlsx
+++ b/Interactions continuous variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpl104\Documents\Kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpl104\Documents\DeltaState\SSC669\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE69C0A-CE10-445F-BFF7-E1C351506882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3581E636-B79F-4313-8BD9-43CE9F94CA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" activeTab="1" xr2:uid="{4308A2BC-BEEE-4EB5-A237-BABC16022A62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="689" activeTab="5" xr2:uid="{4308A2BC-BEEE-4EB5-A237-BABC16022A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="17" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>(Intercept)</t>
   </si>
@@ -118,6 +118,21 @@
   <si>
     <t>Increase Yrs Work Experience</t>
   </si>
+  <si>
+    <t xml:space="preserve">How income changes </t>
+  </si>
+  <si>
+    <t>by holding work experience</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>How income changes</t>
+  </si>
+  <si>
+    <t>by holding education</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +270,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -333,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -362,7 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,21 +431,31 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +773,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,62 +792,62 @@
       <c r="B1" s="8">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>3.8039999999999998</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -799,7 +855,7 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="C3" s="15">
@@ -851,8 +907,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="15">
         <v>1</v>
       </c>
@@ -902,8 +958,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="15">
         <v>2</v>
       </c>
@@ -953,8 +1009,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
@@ -1004,8 +1060,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="15">
         <v>4</v>
       </c>
@@ -1055,8 +1111,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
@@ -1109,7 +1165,11 @@
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="3">
@@ -1158,7 +1218,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3">
@@ -1207,7 +1271,11 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="3">
@@ -1256,7 +1324,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3">
@@ -1305,7 +1375,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3">
@@ -1368,13 +1440,21 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="15">
+    <row r="17" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46">
         <v>0</v>
       </c>
       <c r="D17" s="12"/>
@@ -1419,8 +1499,12 @@
         <v>3.804000000000002</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="15">
+    <row r="18" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46">
         <v>1</v>
       </c>
       <c r="D18" s="12"/>
@@ -1465,8 +1549,10 @@
         <v>3.8039999999999949</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C19" s="15">
+    <row r="19" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46">
         <v>2</v>
       </c>
       <c r="D19" s="12"/>
@@ -1511,8 +1597,10 @@
         <v>3.804000000000002</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C20" s="15">
+    <row r="20" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46">
         <v>3</v>
       </c>
       <c r="D20" s="12"/>
@@ -1557,8 +1645,10 @@
         <v>3.804000000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C21" s="15">
+    <row r="21" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46">
         <v>4</v>
       </c>
       <c r="D21" s="12"/>
@@ -1603,8 +1693,10 @@
         <v>3.8040000000000092</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C22" s="15">
+    <row r="22" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="46">
         <v>5</v>
       </c>
       <c r="D22" s="12"/>
@@ -1649,13 +1741,13 @@
         <v>3.804000000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D25" s="12"/>
     </row>
   </sheetData>
@@ -1670,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EACC67-7354-4D83-BAE1-0152CE64201F}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,62 +1784,62 @@
       <c r="B1" s="8">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>1.9270191999999999</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="41">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -1755,7 +1847,7 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>7.9126042999999993E-2</v>
       </c>
       <c r="C3" s="15">
@@ -1810,7 +1902,7 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>8.9847099999999999E-2</v>
       </c>
       <c r="C4" s="15">
@@ -1862,8 +1954,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="15">
         <v>2</v>
       </c>
@@ -1913,8 +2005,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="15">
         <v>3</v>
       </c>
@@ -1964,8 +2056,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="15">
         <v>4</v>
       </c>
@@ -2015,8 +2107,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="15">
         <v>5</v>
       </c>
@@ -2066,8 +2158,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="15"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2082,60 +2174,60 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f>$B$3+(0*$B$4)</f>
         <v>7.9126042999999993E-2</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f>$B$3+(1*$B$4)</f>
         <v>0.16897314299999999</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f>$B$3+(2*$B$4)</f>
         <v>0.25882024300000001</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f>$B$3+(3*$B$4)</f>
         <v>0.34866734299999996</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f>$B$3+(4*$B$4)</f>
         <v>0.43851444299999998</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <f>$B$3+(5*$B$4)</f>
         <v>0.52836154300000004</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <f>$B$3+(6*$B$4)</f>
         <v>0.618208643</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f>$B$3+(7*$B$4)</f>
         <v>0.70805574300000007</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <f>$B$3+(8*$B$4)</f>
         <v>0.79790284300000003</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <f>$B$3+(9*$B$4)</f>
         <v>0.88774994299999999</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="33">
         <f>$B$3+(10*$B$4)</f>
         <v>0.97759704300000005</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2187,59 +2279,59 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:N15" si="3">D5-D4</f>
+        <f t="shared" ref="D12:D15" si="3">D5-D4</f>
         <v>7.9126043000002255E-2</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D12:N15" si="4">E5-E4</f>
         <v>0.16897314300000232</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25882024300000239</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34866734299999536</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43851444299999542</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52836154299999549</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61820864299999556</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70805574299999563</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7979028429999957</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88774994299999577</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97759704299999584</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2250,48 +2342,48 @@
         <v>7.9126042999998702E-2</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16897314299999877</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25882024299999529</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34866734300000246</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43851444300000253</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5283615430000026</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61820864300000267</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70805574300000274</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7979028430000028</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88774994300000287</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97759704300000294</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="37"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2300,48 +2392,48 @@
         <v>7.9126042999998702E-2</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16897314299999877</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25882024300000239</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34866734300000246</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43851444300000253</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5283615430000026</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61820864300000267</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70805574300000274</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7979028430000028</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88774994300000287</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97759704300000294</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="37"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2350,43 +2442,43 @@
         <v>7.9126043000002255E-2</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16897314300000232</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25882024300000239</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34866734299999536</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43851444299999542</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52836154299999549</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.61820864299999556</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70805574299999563</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7979028429999957</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88774994299999577</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97759704299998873</v>
       </c>
     </row>
@@ -2405,26 +2497,26 @@
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="31" x14ac:dyDescent="0.7">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C18" s="15">
@@ -2439,39 +2531,39 @@
         <v>1.9270192000000002</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:N18" si="4">F3-E3</f>
+        <f t="shared" ref="F18:N18" si="5">F3-E3</f>
         <v>1.9270192000000002</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270192000000002</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270191999999966</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270192000000037</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270191999999966</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270192000000037</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270191999999966</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270192000000037</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9270191999999966</v>
       </c>
     </row>
@@ -2484,43 +2576,43 @@
         <v>2.0168662999999998</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="E19:E23" si="5">E4-D4</f>
+        <f t="shared" ref="E19:E23" si="6">E4-D4</f>
         <v>2.0168663000000002</v>
       </c>
       <c r="F19" s="6">
-        <f>F4-E4</f>
+        <f t="shared" ref="F19:N19" si="7">F4-E4</f>
         <v>2.0168663000000002</v>
       </c>
       <c r="G19" s="6">
-        <f>G4-F4</f>
+        <f t="shared" si="7"/>
         <v>2.0168663000000038</v>
       </c>
       <c r="H19" s="6">
-        <f>H4-G4</f>
+        <f t="shared" si="7"/>
         <v>2.0168662999999967</v>
       </c>
       <c r="I19" s="6">
-        <f>I4-H4</f>
+        <f t="shared" si="7"/>
         <v>2.0168663000000038</v>
       </c>
       <c r="J19" s="6">
-        <f>J4-I4</f>
+        <f t="shared" si="7"/>
         <v>2.0168662999999967</v>
       </c>
       <c r="K19" s="6">
-        <f>K4-J4</f>
+        <f t="shared" si="7"/>
         <v>2.0168663000000038</v>
       </c>
       <c r="L19" s="6">
-        <f>L4-K4</f>
+        <f t="shared" si="7"/>
         <v>2.0168662999999967</v>
       </c>
       <c r="M19" s="6">
-        <f>M4-L4</f>
+        <f t="shared" si="7"/>
         <v>2.0168663000000038</v>
       </c>
       <c r="N19" s="6">
-        <f>N4-M4</f>
+        <f t="shared" si="7"/>
         <v>2.0168662999999967</v>
       </c>
     </row>
@@ -2533,43 +2625,43 @@
         <v>2.1067133999999998</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1067134000000003</v>
       </c>
       <c r="F20" s="6">
-        <f>F5-E5</f>
+        <f t="shared" ref="F20:N20" si="8">F5-E5</f>
         <v>2.1067134000000003</v>
       </c>
       <c r="G20" s="6">
-        <f>G5-F5</f>
+        <f t="shared" si="8"/>
         <v>2.1067133999999967</v>
       </c>
       <c r="H20" s="6">
-        <f>H5-G5</f>
+        <f t="shared" si="8"/>
         <v>2.1067133999999967</v>
       </c>
       <c r="I20" s="6">
-        <f>I5-H5</f>
+        <f t="shared" si="8"/>
         <v>2.1067134000000038</v>
       </c>
       <c r="J20" s="6">
-        <f>J5-I5</f>
+        <f t="shared" si="8"/>
         <v>2.1067133999999967</v>
       </c>
       <c r="K20" s="6">
-        <f>K5-J5</f>
+        <f t="shared" si="8"/>
         <v>2.1067134000000038</v>
       </c>
       <c r="L20" s="6">
-        <f>L5-K5</f>
+        <f t="shared" si="8"/>
         <v>2.1067133999999967</v>
       </c>
       <c r="M20" s="6">
-        <f>M5-L5</f>
+        <f t="shared" si="8"/>
         <v>2.1067134000000038</v>
       </c>
       <c r="N20" s="6">
-        <f>N5-M5</f>
+        <f t="shared" si="8"/>
         <v>2.1067133999999967</v>
       </c>
     </row>
@@ -2582,43 +2674,43 @@
         <v>2.1965604999999999</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1965605000000004</v>
       </c>
       <c r="F21" s="6">
-        <f>F6-E6</f>
+        <f t="shared" ref="F21:N21" si="9">F6-E6</f>
         <v>2.1965604999999968</v>
       </c>
       <c r="G21" s="6">
-        <f>G6-F6</f>
+        <f t="shared" si="9"/>
         <v>2.1965605000000039</v>
       </c>
       <c r="H21" s="6">
-        <f>H6-G6</f>
+        <f t="shared" si="9"/>
         <v>2.1965604999999968</v>
       </c>
       <c r="I21" s="6">
-        <f>I6-H6</f>
+        <f t="shared" si="9"/>
         <v>2.1965605000000039</v>
       </c>
       <c r="J21" s="6">
-        <f>J6-I6</f>
+        <f t="shared" si="9"/>
         <v>2.1965604999999968</v>
       </c>
       <c r="K21" s="6">
-        <f>K6-J6</f>
+        <f t="shared" si="9"/>
         <v>2.1965605000000039</v>
       </c>
       <c r="L21" s="6">
-        <f>L6-K6</f>
+        <f t="shared" si="9"/>
         <v>2.1965604999999968</v>
       </c>
       <c r="M21" s="6">
-        <f>M6-L6</f>
+        <f t="shared" si="9"/>
         <v>2.1965605000000039</v>
       </c>
       <c r="N21" s="6">
-        <f>N6-M6</f>
+        <f t="shared" si="9"/>
         <v>2.1965604999999968</v>
       </c>
     </row>
@@ -2631,43 +2723,43 @@
         <v>2.2864076</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2864076000000004</v>
       </c>
       <c r="F22" s="6">
-        <f>F7-E7</f>
+        <f t="shared" ref="F22:N22" si="10">F7-E7</f>
         <v>2.2864076000000004</v>
       </c>
       <c r="G22" s="6">
-        <f>G7-F7</f>
+        <f t="shared" si="10"/>
         <v>2.286407600000004</v>
       </c>
       <c r="H22" s="6">
-        <f>H7-G7</f>
+        <f t="shared" si="10"/>
         <v>2.2864075999999969</v>
       </c>
       <c r="I22" s="6">
-        <f>I7-H7</f>
+        <f t="shared" si="10"/>
         <v>2.286407600000004</v>
       </c>
       <c r="J22" s="6">
-        <f>J7-I7</f>
+        <f t="shared" si="10"/>
         <v>2.2864075999999969</v>
       </c>
       <c r="K22" s="6">
-        <f>K7-J7</f>
+        <f t="shared" si="10"/>
         <v>2.286407600000004</v>
       </c>
       <c r="L22" s="6">
-        <f>L7-K7</f>
+        <f t="shared" si="10"/>
         <v>2.2864075999999969</v>
       </c>
       <c r="M22" s="6">
-        <f>M7-L7</f>
+        <f t="shared" si="10"/>
         <v>2.286407600000004</v>
       </c>
       <c r="N22" s="6">
-        <f>N7-M7</f>
+        <f t="shared" si="10"/>
         <v>2.2864075999999969</v>
       </c>
     </row>
@@ -2680,48 +2772,57 @@
         <v>2.3762547000000001</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3762547000000005</v>
       </c>
       <c r="F23" s="6">
-        <f>F8-E8</f>
+        <f t="shared" ref="F23:N23" si="11">F8-E8</f>
         <v>2.3762547000000005</v>
       </c>
       <c r="G23" s="6">
-        <f>G8-F8</f>
+        <f t="shared" si="11"/>
         <v>2.3762546999999969</v>
       </c>
       <c r="H23" s="6">
-        <f>H8-G8</f>
+        <f t="shared" si="11"/>
         <v>2.3762546999999969</v>
       </c>
       <c r="I23" s="6">
-        <f>I8-H8</f>
+        <f t="shared" si="11"/>
         <v>2.376254700000004</v>
       </c>
       <c r="J23" s="6">
-        <f>J8-I8</f>
+        <f t="shared" si="11"/>
         <v>2.3762546999999969</v>
       </c>
       <c r="K23" s="6">
-        <f>K8-J8</f>
+        <f t="shared" si="11"/>
         <v>2.376254700000004</v>
       </c>
       <c r="L23" s="6">
-        <f>L8-K8</f>
+        <f t="shared" si="11"/>
         <v>2.3762546999999969</v>
       </c>
       <c r="M23" s="6">
-        <f>M8-L8</f>
+        <f t="shared" si="11"/>
         <v>2.376254700000004</v>
       </c>
       <c r="N23" s="6">
-        <f>N8-M8</f>
+        <f t="shared" si="11"/>
         <v>2.3762546999999898</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D24" s="12"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D25" s="12"/>
@@ -2745,7 +2846,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2764,22 +2865,22 @@
       <c r="B1" s="5">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -2788,40 +2889,40 @@
       <c r="B2" s="13">
         <v>1.9270191999999999</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -2833,106 +2934,106 @@
         <v>7.9126042999999993E-2</v>
       </c>
       <c r="C3" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f>$B$1+(D$2*$B$2)+($B$3*0)+($B$4*$C3)+($B$5*D$2*0)+($B$6*D$2*$C3)+($B$7*0*$C3)+($B$8*D$2*0*$C3)</f>
-        <v>27.589784999999999</v>
+        <v>27.563784999999999</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:N3" si="0">$B$1+(E$2*$B$2)+($B$3*0)+($B$4*$C3)+($B$5*E$2*0)+($B$6*E$2*$C3)+($B$7*0*$C3)+($B$8*E$2*0*$C3)</f>
-        <v>29.551804199999999</v>
+        <v>29.490804199999999</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>31.5138234</v>
+        <v>31.4178234</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>33.4758426</v>
+        <v>33.3448426</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>35.4378618</v>
+        <v>35.271861799999996</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>37.399881000000001</v>
+        <v>37.198881</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="0"/>
-        <v>39.361900200000001</v>
+        <v>39.125900199999997</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>41.323919400000001</v>
+        <v>41.0529194</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" si="0"/>
-        <v>43.285938600000001</v>
+        <v>42.979938599999997</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>45.247957800000002</v>
+        <v>44.906957800000001</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>47.209977000000002</v>
+        <v>46.833976999999997</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C4" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:N8" si="1">$B$1+(D$2*$B$2)+($B$3*0)+($B$4*$C4)+($B$5*D$2*0)+($B$6*D$2*$C4)+($B$7*0*$C4)+($B$8*D$2*0*$C4)</f>
-        <v>27.615784999999999</v>
+        <v>27.589784999999999</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>29.612804199999999</v>
+        <v>29.551804199999999</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>31.6098234</v>
+        <v>31.5138234</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>33.6068426</v>
+        <v>33.4758426</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>35.603861799999997</v>
+        <v>35.4378618</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>37.600881000000001</v>
+        <v>37.399881000000001</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>39.597900199999998</v>
+        <v>39.361900200000001</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>41.594919400000002</v>
+        <v>41.323919400000001</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>43.591938599999999</v>
+        <v>43.285938600000001</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>45.588957800000003</v>
+        <v>45.247957800000002</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="1"/>
-        <v>47.585977</v>
+        <v>47.209977000000002</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.45">
@@ -2942,52 +3043,52 @@
       <c r="B5" s="5">
         <v>8.9847099999999999E-2</v>
       </c>
-      <c r="C5" s="15">
-        <v>3</v>
+      <c r="C5" s="29">
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>27.641784999999999</v>
+        <v>27.615784999999999</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>29.673804199999999</v>
+        <v>29.612804199999999</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>31.7058234</v>
+        <v>31.6098234</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>33.7378426</v>
+        <v>33.6068426</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>35.769861800000001</v>
+        <v>35.603861799999997</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>37.801881000000002</v>
+        <v>37.600881000000001</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>39.833900200000002</v>
+        <v>39.597900199999998</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>41.865919400000003</v>
+        <v>41.594919400000002</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>43.897938600000003</v>
+        <v>43.591938599999999</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>45.929957800000004</v>
+        <v>45.588957800000003</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>47.961976999999997</v>
+        <v>47.585977</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35" x14ac:dyDescent="0.45">
@@ -2997,52 +3098,52 @@
       <c r="B6" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C6" s="15">
-        <v>4</v>
+      <c r="C6" s="29">
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>27.667784999999999</v>
+        <v>27.641784999999999</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>29.734804199999999</v>
+        <v>29.673804199999999</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>31.8018234</v>
+        <v>31.7058234</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>33.868842600000001</v>
+        <v>33.7378426</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>35.935861799999998</v>
+        <v>35.769861800000001</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>38.002881000000002</v>
+        <v>37.801881000000002</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>40.069900199999999</v>
+        <v>39.833900200000002</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>42.136919399999996</v>
+        <v>41.865919400000003</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>44.203938599999994</v>
+        <v>43.897938600000003</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>46.270957799999998</v>
+        <v>45.929957800000004</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>48.337976999999995</v>
+        <v>47.961976999999997</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35" x14ac:dyDescent="0.45">
@@ -3052,52 +3153,52 @@
       <c r="B7" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="C7" s="15">
-        <v>5</v>
+      <c r="C7" s="29">
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>27.693784999999998</v>
+        <v>27.667784999999999</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>29.795804199999999</v>
+        <v>29.734804199999999</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>31.8978234</v>
+        <v>31.8018234</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>33.999842600000001</v>
+        <v>33.868842600000001</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>36.101861800000002</v>
+        <v>35.935861799999998</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>38.203881000000003</v>
+        <v>38.002881000000002</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>40.305900199999996</v>
+        <v>40.069900199999999</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>42.407919400000004</v>
+        <v>42.136919399999996</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>44.509938599999998</v>
+        <v>44.203938599999994</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>46.611957800000006</v>
+        <v>46.270957799999998</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
-        <v>48.713977</v>
+        <v>48.337976999999995</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" x14ac:dyDescent="0.45">
@@ -3107,454 +3208,454 @@
       <c r="B8" s="9">
         <v>1.23E-2</v>
       </c>
-      <c r="C8" s="15">
-        <v>6</v>
+      <c r="C8" s="29">
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>27.719784999999998</v>
+        <v>27.693784999999998</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>29.856804199999999</v>
+        <v>29.795804199999999</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>31.9938234</v>
+        <v>31.8978234</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>34.130842600000001</v>
+        <v>33.999842600000001</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>36.267861799999999</v>
+        <v>36.101861800000002</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>38.404880999999996</v>
+        <v>38.203881000000003</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>40.541900199999994</v>
+        <v>40.305900199999996</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>42.678919399999998</v>
+        <v>42.407919400000004</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>44.815938599999996</v>
+        <v>44.509938599999998</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>46.9529578</v>
+        <v>46.611957800000006</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
-        <v>49.089976999999998</v>
+        <v>48.713977</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <f>$B$6+(0*$B$8)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
         <f>E11-D11</f>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <f t="shared" ref="F10:N10" si="2">F11-E11</f>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f t="shared" si="2"/>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>3.5000000000003695E-2</v>
+      </c>
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>3.4999999999996589E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="2"/>
         <v>3.5000000000003695E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="22">
         <f t="shared" si="2"/>
         <v>3.4999999999996589E-2</v>
       </c>
-      <c r="K10" s="23">
+      <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>3.5000000000003695E-2</v>
       </c>
-      <c r="L10" s="23">
+      <c r="M10" s="22">
         <f t="shared" si="2"/>
         <v>3.4999999999996589E-2</v>
       </c>
-      <c r="M10" s="23">
+      <c r="N10" s="22">
         <f t="shared" si="2"/>
         <v>3.5000000000003695E-2</v>
       </c>
-      <c r="N10" s="23">
-        <f t="shared" si="2"/>
-        <v>3.4999999999996589E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26">
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25">
         <f>D4-D3</f>
         <v>2.5999999999999801E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" ref="E11:N11" si="3">E4-E3</f>
         <v>6.0999999999999943E-2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <f t="shared" si="3"/>
         <v>9.6000000000000085E-2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <f t="shared" si="3"/>
         <v>0.13100000000000023</v>
       </c>
-      <c r="H11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.16599999999999682</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="H11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.16600000000000392</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="3"/>
         <v>0.20100000000000051</v>
       </c>
-      <c r="J11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.2359999999999971</v>
-      </c>
-      <c r="K11" s="26">
+      <c r="J11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.23600000000000421</v>
+      </c>
+      <c r="K11" s="25">
         <f t="shared" si="3"/>
         <v>0.2710000000000008</v>
       </c>
-      <c r="L11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.30599999999999739</v>
-      </c>
-      <c r="M11" s="26">
+      <c r="L11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30600000000000449</v>
+      </c>
+      <c r="M11" s="25">
         <f t="shared" si="3"/>
         <v>0.34100000000000108</v>
       </c>
-      <c r="N11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.37599999999999767</v>
+      <c r="N11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.37600000000000477</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f>$B$2+(0*$B$5)+($C3*$B$6)+(0*$C3*$B$8)</f>
+        <v>1.9270191999999999</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26">
+        <f t="shared" ref="E12:N12" si="4">E3-D3</f>
+        <v>1.9270192000000002</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270192000000002</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270192000000002</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270191999999966</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270192000000037</v>
+      </c>
+      <c r="J12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270191999999966</v>
+      </c>
+      <c r="K12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270192000000037</v>
+      </c>
+      <c r="L12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270191999999966</v>
+      </c>
+      <c r="M12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270192000000037</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9270191999999966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B13" s="19">
+        <f t="shared" ref="B13:B17" si="5">$B$2+(0*$B$5)+($C4*$B$6)+(0*$C4*$B$8)</f>
         <v>1.9620191999999999</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27">
-        <f t="shared" ref="E12:N12" si="4">E3-D3</f>
+      <c r="C13" s="19">
+        <f>B13-B12</f>
+        <v>3.499999999999992E-2</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28">
+        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
         <v>1.9620192000000003</v>
       </c>
-      <c r="F12" s="27">
-        <f t="shared" si="4"/>
+      <c r="F13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" si="4"/>
+      <c r="G13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="H12" s="27">
-        <f t="shared" si="4"/>
+      <c r="H13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="I12" s="27">
-        <f t="shared" si="4"/>
+      <c r="I13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="J12" s="27">
-        <f t="shared" si="4"/>
+      <c r="J13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="K12" s="27">
-        <f t="shared" si="4"/>
+      <c r="K13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="L12" s="27">
-        <f t="shared" si="4"/>
+      <c r="L13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="M12" s="27">
-        <f t="shared" si="4"/>
+      <c r="M13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
-      <c r="N12" s="27">
-        <f t="shared" si="4"/>
+      <c r="N13" s="28">
+        <f t="shared" si="6"/>
         <v>1.9620192000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B13" s="20">
-        <f t="shared" ref="B13:B17" si="5">$B$2+(0*$B$5)+($C4*$B$6)+(0*$C4*$B$8)</f>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B14" s="19">
+        <f t="shared" si="5"/>
         <v>1.9970192</v>
       </c>
-      <c r="C13" s="20">
-        <f>B13-B12</f>
-        <v>3.5000000000000142E-2</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29">
-        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
-        <v>1.9970192000000004</v>
-      </c>
-      <c r="F13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970192000000004</v>
-      </c>
-      <c r="G13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970192000000004</v>
-      </c>
-      <c r="H13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970191999999969</v>
-      </c>
-      <c r="I13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.997019200000004</v>
-      </c>
-      <c r="J13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970191999999969</v>
-      </c>
-      <c r="K13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.997019200000004</v>
-      </c>
-      <c r="L13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970191999999969</v>
-      </c>
-      <c r="M13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.997019200000004</v>
-      </c>
-      <c r="N13" s="29">
-        <f t="shared" si="6"/>
-        <v>1.9970191999999969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B14" s="20">
-        <f t="shared" si="5"/>
-        <v>2.0320192000000001</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <f>B14-B13</f>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29">
+      <c r="D14" s="27"/>
+      <c r="E14" s="28">
         <f t="shared" ref="E14:N14" si="7">E5-D5</f>
+        <v>1.9970192000000004</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970192000000004</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970192000000004</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970191999999969</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.997019200000004</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970191999999969</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.997019200000004</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970191999999969</v>
+      </c>
+      <c r="M14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.997019200000004</v>
+      </c>
+      <c r="N14" s="28">
+        <f t="shared" si="7"/>
+        <v>1.9970191999999969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B15" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0320192000000001</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" ref="C15:C17" si="8">B15-B14</f>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28">
+        <f t="shared" ref="E15:N15" si="9">E6-D6</f>
         <v>2.0320192000000006</v>
       </c>
-      <c r="F14" s="29">
-        <f t="shared" si="7"/>
+      <c r="F15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="G14" s="29">
-        <f t="shared" si="7"/>
+      <c r="G15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="H14" s="29">
-        <f t="shared" si="7"/>
+      <c r="H15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="I14" s="29">
-        <f t="shared" si="7"/>
+      <c r="I15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="J14" s="29">
-        <f t="shared" si="7"/>
+      <c r="J15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="K14" s="29">
-        <f t="shared" si="7"/>
+      <c r="K15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="L14" s="29">
-        <f t="shared" si="7"/>
+      <c r="L15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="M14" s="29">
-        <f t="shared" si="7"/>
+      <c r="M15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320192000000006</v>
       </c>
-      <c r="N14" s="29">
-        <f t="shared" si="7"/>
+      <c r="N15" s="28">
+        <f t="shared" si="9"/>
         <v>2.0320191999999935</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B15" s="20">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B16" s="19">
         <f t="shared" si="5"/>
         <v>2.0670191999999998</v>
       </c>
-      <c r="C15" s="20">
-        <f t="shared" ref="C15:C17" si="8">B15-B14</f>
+      <c r="C16" s="19">
+        <f t="shared" si="8"/>
         <v>3.4999999999999698E-2</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29">
-        <f t="shared" ref="E15:N15" si="9">E6-D6</f>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28">
+        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
         <v>2.0670192000000007</v>
       </c>
-      <c r="F15" s="29">
-        <f t="shared" si="9"/>
+      <c r="F16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670192000000007</v>
       </c>
-      <c r="G15" s="29">
-        <f t="shared" si="9"/>
+      <c r="G16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670192000000007</v>
       </c>
-      <c r="H15" s="29">
-        <f t="shared" si="9"/>
+      <c r="H16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670191999999972</v>
       </c>
-      <c r="I15" s="29">
-        <f t="shared" si="9"/>
+      <c r="I16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670192000000043</v>
       </c>
-      <c r="J15" s="29">
-        <f t="shared" si="9"/>
+      <c r="J16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670191999999972</v>
       </c>
-      <c r="K15" s="29">
-        <f t="shared" si="9"/>
+      <c r="K16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670191999999972</v>
       </c>
-      <c r="L15" s="29">
-        <f t="shared" si="9"/>
+      <c r="L16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670191999999972</v>
       </c>
-      <c r="M15" s="29">
-        <f t="shared" si="9"/>
+      <c r="M16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670192000000043</v>
       </c>
-      <c r="N15" s="29">
-        <f t="shared" si="9"/>
+      <c r="N16" s="28">
+        <f t="shared" si="10"/>
         <v>2.0670191999999972</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B16" s="20">
+    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B17" s="19">
         <f t="shared" si="5"/>
         <v>2.1020192</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="8"/>
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29">
-        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28">
+        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
         <v>2.1020192000000009</v>
       </c>
-      <c r="F16" s="29">
-        <f t="shared" si="10"/>
+      <c r="F17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020192000000009</v>
       </c>
-      <c r="G16" s="29">
-        <f t="shared" si="10"/>
+      <c r="G17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020192000000009</v>
       </c>
-      <c r="H16" s="29">
-        <f t="shared" si="10"/>
+      <c r="H17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020192000000009</v>
       </c>
-      <c r="I16" s="29">
-        <f t="shared" si="10"/>
+      <c r="I17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020192000000009</v>
       </c>
-      <c r="J16" s="29">
-        <f t="shared" si="10"/>
+      <c r="J17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020191999999938</v>
       </c>
-      <c r="K16" s="29">
-        <f t="shared" si="10"/>
+      <c r="K17" s="28">
+        <f t="shared" si="11"/>
         <v>2.102019200000008</v>
       </c>
-      <c r="L16" s="29">
-        <f t="shared" si="10"/>
+      <c r="L17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020191999999938</v>
       </c>
-      <c r="M16" s="29">
-        <f t="shared" si="10"/>
+      <c r="M17" s="28">
+        <f t="shared" si="11"/>
         <v>2.102019200000008</v>
       </c>
-      <c r="N16" s="29">
-        <f t="shared" si="10"/>
+      <c r="N17" s="28">
+        <f t="shared" si="11"/>
         <v>2.1020191999999938</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B17" s="20">
-        <f t="shared" si="5"/>
-        <v>2.1370192000000001</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="8"/>
-        <v>3.5000000000000142E-2</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29">
-        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
-        <v>2.137019200000001</v>
-      </c>
-      <c r="F17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.137019200000001</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.137019200000001</v>
-      </c>
-      <c r="H17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370191999999975</v>
-      </c>
-      <c r="I17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370191999999975</v>
-      </c>
-      <c r="J17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370191999999975</v>
-      </c>
-      <c r="K17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370192000000046</v>
-      </c>
-      <c r="L17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370191999999975</v>
-      </c>
-      <c r="M17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370192000000046</v>
-      </c>
-      <c r="N17" s="29">
-        <f t="shared" si="11"/>
-        <v>2.1370191999999975</v>
       </c>
     </row>
   </sheetData>
@@ -3569,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5C8A69-2AE6-4F04-B597-C71B014262B0}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3589,22 +3690,22 @@
       <c r="B1" s="5">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -3613,40 +3714,40 @@
       <c r="B2" s="13">
         <v>1.9270191999999999</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -3658,106 +3759,106 @@
         <v>7.9126042999999993E-2</v>
       </c>
       <c r="C3" s="15">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <f>$B$1+(D$2*$B$2)+($B$3*1)+($B$4*$C3)+($B$5*D$2*1)+($B$6*D$2*$C3)+($B$7*1*$C3)+($B$8*D$2*1*$C3)</f>
-        <v>27.687911042999996</v>
-      </c>
-      <c r="E3" s="18">
+        <v>27.642911042999998</v>
+      </c>
+      <c r="E3" s="17">
         <f t="shared" ref="E3:N3" si="0">$B$1+(E$2*$B$2)+($B$3*1)+($B$4*$C3)+($B$5*E$2*1)+($B$6*E$2*$C3)+($B$7*1*$C3)+($B$8*E$2*1*$C3)</f>
-        <v>29.752077342999996</v>
-      </c>
-      <c r="F3" s="18">
+        <v>29.659777342999998</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
-        <v>31.816243642999996</v>
-      </c>
-      <c r="G3" s="18">
+        <v>31.676643642999998</v>
+      </c>
+      <c r="G3" s="17">
         <f t="shared" si="0"/>
-        <v>33.880409943000004</v>
-      </c>
-      <c r="H3" s="18">
+        <v>33.693509943000002</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
-        <v>35.944576243</v>
-      </c>
-      <c r="I3" s="18">
+        <v>35.710376242999999</v>
+      </c>
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
-        <v>38.008742543000004</v>
-      </c>
-      <c r="J3" s="18">
+        <v>37.727242543000003</v>
+      </c>
+      <c r="J3" s="17">
         <f t="shared" si="0"/>
-        <v>40.072908843</v>
-      </c>
-      <c r="K3" s="18">
+        <v>39.744108842999999</v>
+      </c>
+      <c r="K3" s="17">
         <f t="shared" si="0"/>
-        <v>42.137075143000004</v>
-      </c>
-      <c r="L3" s="18">
+        <v>41.760975143000003</v>
+      </c>
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
-        <v>44.201241443000001</v>
-      </c>
-      <c r="M3" s="18">
+        <v>43.777841443</v>
+      </c>
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
-        <v>46.265407743000004</v>
-      </c>
-      <c r="N3" s="18">
+        <v>45.794707743000004</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
-        <v>48.329574043000001</v>
+        <v>47.811574043</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" ref="D4:N8" si="1">$B$1+(D$2*$B$2)+($B$3*1)+($B$4*$C4)+($B$5*D$2*1)+($B$6*D$2*$C4)+($B$7*1*$C4)+($B$8*D$2*1*$C4)</f>
-        <v>27.732911042999998</v>
-      </c>
-      <c r="E4" s="18">
-        <f t="shared" si="1"/>
-        <v>29.844377342999998</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="1"/>
-        <v>31.955843642999998</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="1"/>
-        <v>34.067309942999998</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" si="1"/>
-        <v>36.178776242999994</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" si="1"/>
-        <v>38.290242542999998</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="1"/>
-        <v>40.401708842999994</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="1"/>
-        <v>42.513175142999998</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="1"/>
-        <v>44.624641443000002</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" si="1"/>
-        <v>46.736107743000005</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" si="1"/>
-        <v>48.847574043000002</v>
+        <v>27.687911042999996</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>29.752077342999996</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
+        <v>31.816243642999996</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>33.880409943000004</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>35.944576243</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="1"/>
+        <v>38.008742543000004</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>40.072908843</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="1"/>
+        <v>42.137075143000004</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="1"/>
+        <v>44.201241443000001</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="1"/>
+        <v>46.265407743000004</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" si="1"/>
+        <v>48.329574043000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.45">
@@ -3767,52 +3868,52 @@
       <c r="B5" s="5">
         <v>8.9847099999999999E-2</v>
       </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="shared" si="1"/>
-        <v>27.777911042999996</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="1"/>
-        <v>29.936677342999996</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="1"/>
-        <v>32.095443642999996</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="1"/>
-        <v>34.254209943000006</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
-        <v>36.412976243000003</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>38.571742543000006</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="1"/>
-        <v>40.73050884300001</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="1"/>
-        <v>42.889275143000006</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="1"/>
-        <v>45.04804144300001</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="1"/>
-        <v>47.206807743000006</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
-        <v>49.365574043000002</v>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="1"/>
+        <v>27.732911042999998</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="1"/>
+        <v>29.844377342999998</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>31.955843642999998</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>34.067309942999998</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>36.178776242999994</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="1"/>
+        <v>38.290242542999998</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="1"/>
+        <v>40.401708842999994</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="1"/>
+        <v>42.513175142999998</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
+        <v>44.624641443000002</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>46.736107743000005</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
+        <v>48.847574043000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35" x14ac:dyDescent="0.45">
@@ -3822,107 +3923,107 @@
       <c r="B6" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="1"/>
-        <v>27.822911042999998</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="1"/>
-        <v>30.028977342999998</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="1"/>
-        <v>32.235043642999997</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="1"/>
-        <v>34.441109943000001</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="1"/>
-        <v>36.647176243000004</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>38.853242543000007</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="1"/>
-        <v>41.059308843000004</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="1"/>
-        <v>43.265375143</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>45.471441442999996</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="1"/>
-        <v>47.677507743</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="1"/>
-        <v>49.883574042999996</v>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>27.777911042999996</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>29.936677342999996</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>32.095443642999996</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>34.254209943000006</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>36.412976243000003</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>38.571742543000006</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>40.73050884300001</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>42.889275143000006</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>45.04804144300001</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>47.206807743000006</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>49.365574043000002</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.9E-2</v>
       </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="1"/>
-        <v>27.867911042999996</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" si="1"/>
-        <v>30.121277342999996</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="1"/>
-        <v>32.374643642999992</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="1"/>
-        <v>34.628009943000002</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>36.881376243000005</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>39.134742543000002</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="1"/>
-        <v>41.388108842999998</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="1"/>
-        <v>43.641475143000008</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="1"/>
-        <v>45.894841442999997</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="1"/>
-        <v>48.148207743000007</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="1"/>
-        <v>50.401574043000004</v>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>27.822911042999998</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="1"/>
+        <v>30.028977342999998</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>32.235043642999997</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>34.441109943000001</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>36.647176243000004</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>38.853242543000007</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>41.059308843000004</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="1"/>
+        <v>43.265375143</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
+        <v>45.471441442999996</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>47.677507743</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
+        <v>49.883574042999996</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" x14ac:dyDescent="0.5">
@@ -3932,455 +4033,455 @@
       <c r="B8" s="11">
         <v>1.23E-2</v>
       </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="1"/>
-        <v>27.912911042999998</v>
-      </c>
-      <c r="E8" s="18">
-        <f t="shared" si="1"/>
-        <v>30.213577342999997</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="1"/>
-        <v>32.514243642999993</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="1"/>
-        <v>34.814909943000004</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>37.115576243</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>39.416242542999996</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="1"/>
-        <v>41.716908842999992</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="1"/>
-        <v>44.017575142999995</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="1"/>
-        <v>46.318241442999998</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="1"/>
-        <v>48.618907743000001</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="1"/>
-        <v>50.919574042999997</v>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>27.867911042999996</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>30.121277342999996</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>32.374643642999992</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>34.628009943000002</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>36.881376243000005</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="1"/>
+        <v>39.134742543000002</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>41.388108842999998</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="1"/>
+        <v>43.641475143000008</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
+        <v>45.894841442999997</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>48.148207743000007</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
+        <v>50.401574043000004</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <f>$B$6+(1*$B$8)</f>
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
         <f>E11-D11</f>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <f t="shared" ref="F10:N10" si="2">F11-E11</f>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f t="shared" si="2"/>
-        <v>4.7299999999992792E-2</v>
-      </c>
-      <c r="H10" s="23">
+        <v>4.730000000000345E-2</v>
+      </c>
+      <c r="H10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="L10" s="23">
-        <f t="shared" si="2"/>
-        <v>4.7300000000007003E-2</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="N10" s="23">
+      <c r="M10" s="22">
         <f t="shared" si="2"/>
         <v>4.7299999999999898E-2</v>
       </c>
+      <c r="N10" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7299999999999898E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26">
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25">
         <f>D4-D3</f>
-        <v>4.5000000000001705E-2</v>
-      </c>
-      <c r="E11" s="26">
+        <v>4.4999999999998153E-2</v>
+      </c>
+      <c r="E11" s="25">
         <f t="shared" ref="E11:N11" si="3">E4-E3</f>
-        <v>9.2300000000001603E-2</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.1396000000000015</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.18689999999999429</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.23419999999999419</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.28149999999999409</v>
-      </c>
-      <c r="J11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.32879999999999399</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.37609999999999388</v>
-      </c>
-      <c r="L11" s="26">
+        <v>9.229999999999805E-2</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.13959999999999795</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.1869000000000014</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.2342000000000013</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.28150000000000119</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.32880000000000109</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.37610000000000099</v>
+      </c>
+      <c r="L11" s="25">
         <f t="shared" si="3"/>
         <v>0.42340000000000089</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <f t="shared" si="3"/>
         <v>0.47070000000000078</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <f t="shared" si="3"/>
         <v>0.51800000000000068</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f t="shared" ref="B12:B17" si="4">$B$2+(1*$B$5)+($C3*$B$6)+(1*$C3*$B$8)</f>
+        <v>2.0168662999999998</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:N12" si="5">E3-D3</f>
+        <v>2.0168663000000002</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168663000000002</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168663000000038</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168662999999967</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168663000000038</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168662999999967</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168663000000038</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168662999999967</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168663000000038</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0168662999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B13" s="19">
+        <f t="shared" si="4"/>
         <v>2.0641663000000001</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20">
-        <f t="shared" ref="E12:N12" si="5">E3-D3</f>
+      <c r="C13" s="19">
+        <f>B13-B12</f>
+        <v>4.7300000000000342E-2</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
         <v>2.0641663000000001</v>
       </c>
-      <c r="F12" s="20">
-        <f t="shared" si="5"/>
+      <c r="F13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641663000000001</v>
       </c>
-      <c r="G12" s="20">
-        <f t="shared" si="5"/>
+      <c r="G13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641663000000072</v>
       </c>
-      <c r="H12" s="20">
-        <f t="shared" si="5"/>
+      <c r="H13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641662999999966</v>
       </c>
-      <c r="I12" s="20">
-        <f t="shared" si="5"/>
+      <c r="I13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641663000000037</v>
       </c>
-      <c r="J12" s="20">
-        <f t="shared" si="5"/>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641662999999966</v>
       </c>
-      <c r="K12" s="20">
-        <f t="shared" si="5"/>
+      <c r="K13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641663000000037</v>
       </c>
-      <c r="L12" s="20">
-        <f t="shared" si="5"/>
+      <c r="L13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641662999999966</v>
       </c>
-      <c r="M12" s="20">
-        <f t="shared" si="5"/>
+      <c r="M13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641663000000037</v>
       </c>
-      <c r="N12" s="20">
-        <f t="shared" si="5"/>
+      <c r="N13" s="21">
+        <f t="shared" si="6"/>
         <v>2.0641662999999966</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B13" s="20">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B14" s="19">
         <f t="shared" si="4"/>
         <v>2.1114662999999996</v>
       </c>
-      <c r="C13" s="20">
-        <f>B13-B12</f>
+      <c r="C14" s="19">
+        <f>B14-B13</f>
         <v>4.7299999999999454E-2</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22">
-        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
+        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
         <v>2.1114663</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" si="6"/>
+      <c r="F14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" si="6"/>
+      <c r="G14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663</v>
       </c>
-      <c r="H13" s="22">
-        <f t="shared" si="6"/>
+      <c r="H14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114662999999965</v>
       </c>
-      <c r="I13" s="22">
-        <f t="shared" si="6"/>
+      <c r="I14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663000000036</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="6"/>
+      <c r="J14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114662999999965</v>
       </c>
-      <c r="K13" s="22">
-        <f t="shared" si="6"/>
+      <c r="K14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663000000036</v>
       </c>
-      <c r="L13" s="22">
-        <f t="shared" si="6"/>
+      <c r="L14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663000000036</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" si="6"/>
+      <c r="M14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114663000000036</v>
       </c>
-      <c r="N13" s="22">
-        <f t="shared" si="6"/>
+      <c r="N14" s="21">
+        <f t="shared" si="7"/>
         <v>2.1114662999999965</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B14" s="20">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B15" s="19">
         <f t="shared" si="4"/>
         <v>2.1587662999999999</v>
       </c>
-      <c r="C14" s="20">
-        <f>B14-B13</f>
+      <c r="C15" s="19">
+        <f t="shared" ref="C15:C17" si="8">B15-B14</f>
         <v>4.7300000000000342E-2</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
+        <f t="shared" ref="E15:N15" si="9">E6-D6</f>
         <v>2.1587662999999999</v>
       </c>
-      <c r="F14" s="22">
-        <f t="shared" si="7"/>
+      <c r="F15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587662999999999</v>
       </c>
-      <c r="G14" s="22">
-        <f t="shared" si="7"/>
+      <c r="G15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587663000000106</v>
       </c>
-      <c r="H14" s="22">
-        <f t="shared" si="7"/>
+      <c r="H15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587662999999964</v>
       </c>
-      <c r="I14" s="22">
-        <f t="shared" si="7"/>
+      <c r="I15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587663000000035</v>
       </c>
-      <c r="J14" s="22">
-        <f t="shared" si="7"/>
+      <c r="J15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587663000000035</v>
       </c>
-      <c r="K14" s="22">
-        <f t="shared" si="7"/>
+      <c r="K15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587662999999964</v>
       </c>
-      <c r="L14" s="22">
-        <f t="shared" si="7"/>
+      <c r="L15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587663000000035</v>
       </c>
-      <c r="M14" s="22">
-        <f t="shared" si="7"/>
+      <c r="M15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587662999999964</v>
       </c>
-      <c r="N14" s="22">
-        <f t="shared" si="7"/>
+      <c r="N15" s="21">
+        <f t="shared" si="9"/>
         <v>2.1587662999999964</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B15" s="20">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B16" s="19">
         <f t="shared" si="4"/>
         <v>2.2060662999999998</v>
       </c>
-      <c r="C15" s="20">
-        <f t="shared" ref="C15:C17" si="8">B15-B14</f>
-        <v>4.7299999999999898E-2</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
-        <f t="shared" ref="E15:N15" si="9">E6-D6</f>
-        <v>2.2060662999999998</v>
-      </c>
-      <c r="F15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060662999999998</v>
-      </c>
-      <c r="G15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060663000000034</v>
-      </c>
-      <c r="H15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060663000000034</v>
-      </c>
-      <c r="I15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060663000000034</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060662999999963</v>
-      </c>
-      <c r="K15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060662999999963</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060662999999963</v>
-      </c>
-      <c r="M15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060663000000034</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="9"/>
-        <v>2.2060662999999963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B16" s="20">
-        <f t="shared" si="4"/>
-        <v>2.2533662999999997</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <f t="shared" si="8"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22">
+      <c r="D16" s="20"/>
+      <c r="E16" s="21">
         <f t="shared" ref="E16:N16" si="10">E7-D7</f>
+        <v>2.2060662999999998</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060662999999998</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060663000000034</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060663000000034</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060663000000034</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060662999999963</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060662999999963</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060662999999963</v>
+      </c>
+      <c r="M16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060663000000034</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="10"/>
+        <v>2.2060662999999963</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B17" s="19">
+        <f t="shared" si="4"/>
         <v>2.2533662999999997</v>
       </c>
-      <c r="F16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533662999999962</v>
-      </c>
-      <c r="G16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533663000000104</v>
-      </c>
-      <c r="H16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533663000000033</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533662999999962</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533662999999962</v>
-      </c>
-      <c r="K16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533663000000104</v>
-      </c>
-      <c r="L16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533662999999891</v>
-      </c>
-      <c r="M16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533663000000104</v>
-      </c>
-      <c r="N16" s="22">
-        <f t="shared" si="10"/>
-        <v>2.2533662999999962</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B17" s="20">
-        <f t="shared" si="4"/>
-        <v>2.3006662999999996</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="8"/>
         <v>4.7299999999999898E-2</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22">
+      <c r="D17" s="20"/>
+      <c r="E17" s="21">
         <f t="shared" ref="E17:N17" si="11">E8-D8</f>
-        <v>2.3006662999999996</v>
-      </c>
-      <c r="F17" s="22">
+        <v>2.2533662999999997</v>
+      </c>
+      <c r="F17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006662999999961</v>
-      </c>
-      <c r="G17" s="22">
+        <v>2.2533662999999962</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006663000000103</v>
-      </c>
-      <c r="H17" s="22">
+        <v>2.2533663000000104</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006662999999961</v>
-      </c>
-      <c r="I17" s="22">
+        <v>2.2533663000000033</v>
+      </c>
+      <c r="I17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006662999999961</v>
-      </c>
-      <c r="J17" s="22">
+        <v>2.2533662999999962</v>
+      </c>
+      <c r="J17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006662999999961</v>
-      </c>
-      <c r="K17" s="22">
+        <v>2.2533662999999962</v>
+      </c>
+      <c r="K17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006663000000032</v>
-      </c>
-      <c r="L17" s="22">
+        <v>2.2533663000000104</v>
+      </c>
+      <c r="L17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006663000000032</v>
-      </c>
-      <c r="M17" s="22">
+        <v>2.2533662999999891</v>
+      </c>
+      <c r="M17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006663000000032</v>
-      </c>
-      <c r="N17" s="22">
+        <v>2.2533663000000104</v>
+      </c>
+      <c r="N17" s="21">
         <f t="shared" si="11"/>
-        <v>2.3006662999999961</v>
+        <v>2.2533662999999962</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4497,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4415,22 +4516,22 @@
       <c r="B1" s="5">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -4439,40 +4540,40 @@
       <c r="B2" s="13">
         <v>1.9270191999999999</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -4484,106 +4585,106 @@
         <v>7.9126042999999993E-2</v>
       </c>
       <c r="C3" s="15">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <f>$B$1+(D$2*$B$2)+($B$3*2)+($B$4*$C3)+($B$5*D$2*2)+($B$6*D$2*$C3)+($B$7*2*$C3)+($B$8*D$2*2*$C3)</f>
-        <v>27.786037086</v>
-      </c>
-      <c r="E3" s="18">
+        <v>27.722037086</v>
+      </c>
+      <c r="E3" s="17">
         <f t="shared" ref="E3:N3" si="0">$B$1+(E$2*$B$2)+($B$3*2)+($B$4*$C3)+($B$5*E$2*2)+($B$6*E$2*$C3)+($B$7*2*$C3)+($B$8*E$2*2*$C3)</f>
-        <v>29.952350486</v>
-      </c>
-      <c r="F3" s="18">
+        <v>29.828750486000001</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
-        <v>32.118663885999993</v>
-      </c>
-      <c r="G3" s="18">
+        <v>31.935463886000001</v>
+      </c>
+      <c r="G3" s="17">
         <f t="shared" si="0"/>
-        <v>34.284977285999993</v>
-      </c>
-      <c r="H3" s="18">
+        <v>34.042177285999998</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
-        <v>36.451290685999993</v>
-      </c>
-      <c r="I3" s="18">
+        <v>36.148890685999994</v>
+      </c>
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
-        <v>38.617604085999993</v>
-      </c>
-      <c r="J3" s="18">
+        <v>38.255604085999998</v>
+      </c>
+      <c r="J3" s="17">
         <f t="shared" si="0"/>
-        <v>40.783917485999993</v>
-      </c>
-      <c r="K3" s="18">
+        <v>40.362317485999995</v>
+      </c>
+      <c r="K3" s="17">
         <f t="shared" si="0"/>
-        <v>42.950230885999993</v>
-      </c>
-      <c r="L3" s="18">
+        <v>42.469030885999999</v>
+      </c>
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
-        <v>45.116544286</v>
-      </c>
-      <c r="M3" s="18">
+        <v>44.575744285999995</v>
+      </c>
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
-        <v>47.282857686</v>
-      </c>
-      <c r="N3" s="18">
+        <v>46.682457685999999</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
-        <v>49.449171086</v>
+        <v>48.789171085999996</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" ref="D4:N8" si="1">$B$1+(D$2*$B$2)+($B$3*2)+($B$4*$C4)+($B$5*D$2*2)+($B$6*D$2*$C4)+($B$7*2*$C4)+($B$8*D$2*2*$C4)</f>
-        <v>27.850037086</v>
-      </c>
-      <c r="E4" s="18">
-        <f t="shared" si="1"/>
-        <v>30.075950486</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="1"/>
-        <v>32.301863886</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="1"/>
-        <v>34.527777285999996</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" si="1"/>
-        <v>36.753690685999999</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" si="1"/>
-        <v>38.979604086000002</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="1"/>
-        <v>41.205517485999998</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="1"/>
-        <v>43.431430886000001</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="1"/>
-        <v>45.657344285999997</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" si="1"/>
-        <v>47.883257686</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" si="1"/>
-        <v>50.109171085999996</v>
+        <v>27.786037086</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>29.952350486</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
+        <v>32.118663885999993</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>34.284977285999993</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>36.451290685999993</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="1"/>
+        <v>38.617604085999993</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>40.783917485999993</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="1"/>
+        <v>42.950230885999993</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="1"/>
+        <v>45.116544286</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="1"/>
+        <v>47.282857686</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" si="1"/>
+        <v>49.449171086</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.45">
@@ -4593,52 +4694,52 @@
       <c r="B5" s="5">
         <v>8.9847099999999999E-2</v>
       </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="shared" si="1"/>
-        <v>27.914037086</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="1"/>
-        <v>30.199550486</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="1"/>
-        <v>32.485063885999992</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="1"/>
-        <v>34.770577285999998</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
-        <v>37.056090685999997</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>39.341604085999997</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="1"/>
-        <v>41.627117485999996</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="1"/>
-        <v>43.912630885999995</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="1"/>
-        <v>46.198144286000002</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="1"/>
-        <v>48.483657686000001</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
-        <v>50.769171085999993</v>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="1"/>
+        <v>27.850037086</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="1"/>
+        <v>30.075950486</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>32.301863886</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>34.527777285999996</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>36.753690685999999</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="1"/>
+        <v>38.979604086000002</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="1"/>
+        <v>41.205517485999998</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="1"/>
+        <v>43.431430886000001</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
+        <v>45.657344285999997</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>47.883257686</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
+        <v>50.109171085999996</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35" x14ac:dyDescent="0.45">
@@ -4648,107 +4749,107 @@
       <c r="B6" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="1"/>
-        <v>27.978037086</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="1"/>
-        <v>30.323150486000003</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="1"/>
-        <v>32.668263886000005</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="1"/>
-        <v>35.013377286000001</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="1"/>
-        <v>37.358490685999996</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>39.703604085999999</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="1"/>
-        <v>42.048717486000001</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="1"/>
-        <v>44.393830885999996</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>46.738944285999992</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="1"/>
-        <v>49.084057685999994</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="1"/>
-        <v>51.429171085999997</v>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>27.914037086</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>30.199550486</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>32.485063885999992</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>34.770577285999998</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>37.056090685999997</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>39.341604085999997</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>41.627117485999996</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>43.912630885999995</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>46.198144286000002</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>48.483657686000001</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>50.769171085999993</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.9E-2</v>
       </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="1"/>
-        <v>28.042037086000001</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" si="1"/>
-        <v>30.446750486000003</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="1"/>
-        <v>32.851463885999998</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="1"/>
-        <v>35.256177285999996</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>37.660890685999995</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>40.065604086</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="1"/>
-        <v>42.470317485999992</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="1"/>
-        <v>44.875030885999998</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="1"/>
-        <v>47.279744285999996</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="1"/>
-        <v>49.684457686000002</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="1"/>
-        <v>52.089171085999993</v>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>27.978037086</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="1"/>
+        <v>30.323150486000003</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>32.668263886000005</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>35.013377286000001</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>37.358490685999996</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>39.703604085999999</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>42.048717486000001</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="1"/>
+        <v>44.393830885999996</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
+        <v>46.738944285999992</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>49.084057685999994</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
+        <v>51.429171085999997</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" x14ac:dyDescent="0.5">
@@ -4758,455 +4859,455 @@
       <c r="B8" s="11">
         <v>1.23E-2</v>
       </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="1"/>
-        <v>28.106037086000001</v>
-      </c>
-      <c r="E8" s="18">
-        <f t="shared" si="1"/>
-        <v>30.570350486000002</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="1"/>
-        <v>33.034663886000004</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="1"/>
-        <v>35.498977285999999</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>37.963290686000001</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>40.427604085999995</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="1"/>
-        <v>42.89191748599999</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="1"/>
-        <v>45.356230885999999</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="1"/>
-        <v>47.820544285999993</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="1"/>
-        <v>50.284857686000002</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="1"/>
-        <v>52.749171085999997</v>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>28.042037086000001</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>30.446750486000003</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>32.851463885999998</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>35.256177285999996</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>37.660890685999995</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="1"/>
+        <v>40.065604086</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>42.470317485999992</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="1"/>
+        <v>44.875030885999998</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
+        <v>47.279744285999996</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>49.684457686000002</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
+        <v>52.089171085999993</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <f>($B$6)+(2*$B$8)</f>
         <v>5.96E-2</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
         <f>E11-D11</f>
         <v>5.9599999999999653E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <f t="shared" ref="F10:N10" si="2">F11-E11</f>
-        <v>5.9600000000006759E-2</v>
-      </c>
-      <c r="G10" s="23">
+        <v>5.9599999999992548E-2</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9600000000003206E-2</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9600000000003206E-2</v>
+      </c>
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>5.9599999999996101E-2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="2"/>
         <v>5.9600000000003206E-2</v>
       </c>
-      <c r="I10" s="23">
+      <c r="K10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9599999999996101E-2</v>
+      </c>
+      <c r="L10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9600000000010311E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9599999999996101E-2</v>
+      </c>
+      <c r="N10" s="22">
         <f t="shared" si="2"/>
         <v>5.9600000000003206E-2</v>
       </c>
-      <c r="J10" s="23">
-        <f t="shared" si="2"/>
-        <v>5.9599999999996101E-2</v>
-      </c>
-      <c r="K10" s="23">
-        <f t="shared" si="2"/>
-        <v>5.9600000000003206E-2</v>
-      </c>
-      <c r="L10" s="23">
-        <f t="shared" si="2"/>
-        <v>5.9599999999988995E-2</v>
-      </c>
-      <c r="M10" s="23">
-        <f t="shared" si="2"/>
-        <v>5.9600000000003206E-2</v>
-      </c>
-      <c r="N10" s="23">
-        <f t="shared" si="2"/>
-        <v>5.9599999999996101E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26">
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25">
         <f>D4-D3</f>
         <v>6.4000000000000057E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" ref="E11:N11" si="3">E4-E3</f>
         <v>0.12359999999999971</v>
       </c>
-      <c r="F11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.18320000000000647</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.24280000000000257</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.30240000000000578</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.36200000000000898</v>
-      </c>
-      <c r="J11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.42160000000000508</v>
-      </c>
-      <c r="K11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.48120000000000829</v>
-      </c>
-      <c r="L11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.54079999999999728</v>
-      </c>
-      <c r="M11" s="26">
+      <c r="F11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.18319999999999226</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.24279999999999546</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.30239999999999867</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.36199999999999477</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.42159999999999798</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.48119999999999408</v>
+      </c>
+      <c r="L11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.54080000000000439</v>
+      </c>
+      <c r="M11" s="25">
         <f t="shared" si="3"/>
         <v>0.60040000000000049</v>
       </c>
-      <c r="N11" s="26">
-        <f t="shared" si="3"/>
-        <v>0.65999999999999659</v>
+      <c r="N11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.66000000000000369</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f>$B$2+(2*$B$5)+($C3*$B$6)+(2*$C3*$B$8)</f>
+        <v>2.1067133999999998</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:N12" si="4">E3-D3</f>
+        <v>2.1067134000000003</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067134000000003</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067133999999967</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067133999999967</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067134000000038</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067133999999967</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067134000000038</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067133999999967</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067134000000038</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1067133999999967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B13" s="19">
+        <f t="shared" ref="B13:B17" si="5">$B$2+(2*$B$5)+($C4*$B$6)+(2*$C4*$B$8)</f>
         <v>2.1663133999999999</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20">
-        <f t="shared" ref="E12:N12" si="4">E3-D3</f>
+      <c r="C13" s="19">
+        <f>B13-B12</f>
+        <v>5.9600000000000097E-2</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
         <v>2.1663133999999999</v>
       </c>
-      <c r="F12" s="20">
-        <f t="shared" si="4"/>
+      <c r="F13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999928</v>
       </c>
-      <c r="G12" s="20">
-        <f t="shared" si="4"/>
+      <c r="G13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="H12" s="20">
-        <f t="shared" si="4"/>
+      <c r="H13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="I12" s="20">
-        <f t="shared" si="4"/>
+      <c r="I13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="J12" s="20">
-        <f t="shared" si="4"/>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="K12" s="20">
-        <f t="shared" si="4"/>
+      <c r="K13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="L12" s="20">
-        <f t="shared" si="4"/>
+      <c r="L13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663134000000071</v>
       </c>
-      <c r="M12" s="20">
-        <f t="shared" si="4"/>
+      <c r="M13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
-      <c r="N12" s="20">
-        <f t="shared" si="4"/>
+      <c r="N13" s="21">
+        <f t="shared" si="6"/>
         <v>2.1663133999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B13" s="20">
-        <f t="shared" ref="B13:B17" si="5">$B$2+(2*$B$5)+($C4*$B$6)+(2*$C4*$B$8)</f>
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B14" s="19">
+        <f t="shared" si="5"/>
         <v>2.2259133999999996</v>
       </c>
-      <c r="C13" s="20">
-        <f>B13-B12</f>
+      <c r="C14" s="19">
+        <f>B14-B13</f>
         <v>5.9599999999999653E-2</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22">
-        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
+        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
         <v>2.2259133999999996</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" si="6"/>
+      <c r="F14" s="21">
+        <f t="shared" si="7"/>
         <v>2.2259133999999996</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" si="6"/>
+      <c r="G14" s="21">
+        <f t="shared" si="7"/>
         <v>2.225913399999996</v>
       </c>
-      <c r="H13" s="22">
-        <f t="shared" si="6"/>
+      <c r="H14" s="21">
+        <f t="shared" si="7"/>
         <v>2.2259134000000032</v>
       </c>
-      <c r="I13" s="22">
-        <f t="shared" si="6"/>
+      <c r="I14" s="21">
+        <f t="shared" si="7"/>
         <v>2.2259134000000032</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="6"/>
+      <c r="J14" s="21">
+        <f t="shared" si="7"/>
         <v>2.225913399999996</v>
       </c>
-      <c r="K13" s="22">
-        <f t="shared" si="6"/>
+      <c r="K14" s="21">
+        <f t="shared" si="7"/>
         <v>2.2259134000000032</v>
       </c>
-      <c r="L13" s="22">
-        <f t="shared" si="6"/>
+      <c r="L14" s="21">
+        <f t="shared" si="7"/>
         <v>2.225913399999996</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" si="6"/>
+      <c r="M14" s="21">
+        <f t="shared" si="7"/>
         <v>2.2259134000000032</v>
       </c>
-      <c r="N13" s="22">
-        <f t="shared" si="6"/>
+      <c r="N14" s="21">
+        <f t="shared" si="7"/>
         <v>2.225913399999996</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B14" s="20">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B15" s="19">
         <f t="shared" si="5"/>
         <v>2.2855133999999997</v>
       </c>
-      <c r="C14" s="20">
-        <f>B14-B13</f>
-        <v>5.9600000000000097E-2</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999921</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855134000000064</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855134000000064</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999993</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="7"/>
-        <v>2.2855133999999921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B15" s="20">
-        <f t="shared" si="5"/>
-        <v>2.3451133999999998</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <f t="shared" ref="C15:C17" si="8">B15-B14</f>
         <v>5.9600000000000097E-2</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
         <f t="shared" ref="E15:N15" si="9">E6-D6</f>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999921</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855134000000064</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855134000000064</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999993</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="9"/>
+        <v>2.2855133999999921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B16" s="19">
+        <f t="shared" si="5"/>
+        <v>2.3451133999999998</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="8"/>
+        <v>5.9600000000000097E-2</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21">
+        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
         <v>2.3451134000000025</v>
       </c>
-      <c r="F15" s="22">
-        <f t="shared" si="9"/>
+      <c r="F16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451134000000025</v>
       </c>
-      <c r="G15" s="22">
-        <f t="shared" si="9"/>
+      <c r="G16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451133999999954</v>
       </c>
-      <c r="H15" s="22">
-        <f t="shared" si="9"/>
+      <c r="H16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451133999999954</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="9"/>
+      <c r="I16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451134000000025</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="9"/>
+      <c r="J16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451134000000025</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" si="9"/>
+      <c r="K16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451133999999954</v>
       </c>
-      <c r="L15" s="22">
-        <f t="shared" si="9"/>
+      <c r="L16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451133999999954</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" si="9"/>
+      <c r="M16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451134000000025</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" si="9"/>
+      <c r="N16" s="21">
+        <f t="shared" si="10"/>
         <v>2.3451134000000025</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B16" s="20">
+    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B17" s="19">
         <f t="shared" si="5"/>
         <v>2.4047133999999994</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="8"/>
         <v>5.9599999999999653E-2</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22">
-        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
         <v>2.4047134000000021</v>
       </c>
-      <c r="F16" s="22">
-        <f t="shared" si="10"/>
+      <c r="F17" s="21">
+        <f t="shared" si="11"/>
         <v>2.404713399999995</v>
       </c>
-      <c r="G16" s="22">
-        <f t="shared" si="10"/>
+      <c r="G17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047133999999986</v>
       </c>
-      <c r="H16" s="22">
-        <f t="shared" si="10"/>
+      <c r="H17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047133999999986</v>
       </c>
-      <c r="I16" s="22">
-        <f t="shared" si="10"/>
+      <c r="I17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047134000000057</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="10"/>
+      <c r="J17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047133999999915</v>
       </c>
-      <c r="K16" s="22">
-        <f t="shared" si="10"/>
+      <c r="K17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047134000000057</v>
       </c>
-      <c r="L16" s="22">
-        <f t="shared" si="10"/>
+      <c r="L17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047133999999986</v>
       </c>
-      <c r="M16" s="22">
-        <f t="shared" si="10"/>
+      <c r="M17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047134000000057</v>
       </c>
-      <c r="N16" s="22">
-        <f t="shared" si="10"/>
+      <c r="N17" s="21">
+        <f t="shared" si="11"/>
         <v>2.4047133999999915</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B17" s="20">
-        <f t="shared" si="5"/>
-        <v>2.4643134</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="8"/>
-        <v>5.9600000000000541E-2</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22">
-        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
-        <v>2.4643134000000018</v>
-      </c>
-      <c r="F17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643134000000018</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643133999999947</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643134000000018</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643133999999947</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643133999999947</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643134000000089</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643133999999947</v>
-      </c>
-      <c r="M17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643134000000089</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="11"/>
-        <v>2.4643133999999947</v>
       </c>
     </row>
   </sheetData>
@@ -5221,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB67B1C-D155-4699-A9A9-01307E1CB359}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5242,22 +5343,22 @@
       <c r="B1" s="5">
         <v>27.563784999999999</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -5266,40 +5367,40 @@
       <c r="B2" s="13">
         <v>1.9270191999999999</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="37">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="37">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="37">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="37">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="37">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="37">
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="37">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="37">
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="37">
         <v>10</v>
       </c>
     </row>
@@ -5311,106 +5412,106 @@
         <v>7.9126042999999993E-2</v>
       </c>
       <c r="C3" s="15">
-        <v>1</v>
-      </c>
-      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <f>$B$1+(D$2*$B$2)+($B$3*12)+($B$4*$C3)+($B$5*D$2*12)+($B$6*D$2*$C3)+($B$7*12*$C3)+($B$8*D$2*12*$C3)</f>
-        <v>28.767297515999999</v>
-      </c>
-      <c r="E3" s="18">
+        <v>28.513297515999998</v>
+      </c>
+      <c r="E3" s="17">
         <f t="shared" ref="E3:N3" si="0">$B$1+(E$2*$B$2)+($B$3*12)+($B$4*$C3)+($B$5*E$2*12)+($B$6*E$2*$C3)+($B$7*12*$C3)+($B$8*E$2*12*$C3)</f>
-        <v>31.955081916000001</v>
-      </c>
-      <c r="F3" s="18">
+        <v>31.518481915999999</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
-        <v>35.14286631600001</v>
-      </c>
-      <c r="G3" s="18">
+        <v>34.523666316000003</v>
+      </c>
+      <c r="G3" s="17">
         <f t="shared" si="0"/>
-        <v>38.330650716000001</v>
-      </c>
-      <c r="H3" s="18">
+        <v>37.528850716000001</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
-        <v>41.518435115999999</v>
-      </c>
-      <c r="I3" s="18">
+        <v>40.534035115999998</v>
+      </c>
+      <c r="I3" s="17">
         <f t="shared" si="0"/>
-        <v>44.706219515999997</v>
-      </c>
-      <c r="J3" s="18">
+        <v>43.539219516000003</v>
+      </c>
+      <c r="J3" s="17">
         <f t="shared" si="0"/>
-        <v>47.894003915999996</v>
-      </c>
-      <c r="K3" s="18">
+        <v>46.544403915999993</v>
+      </c>
+      <c r="K3" s="17">
         <f t="shared" si="0"/>
-        <v>51.081788316000001</v>
-      </c>
-      <c r="L3" s="18">
+        <v>49.549588315999998</v>
+      </c>
+      <c r="L3" s="17">
         <f t="shared" si="0"/>
-        <v>54.269572715999999</v>
-      </c>
-      <c r="M3" s="18">
+        <v>52.554772715999995</v>
+      </c>
+      <c r="M3" s="17">
         <f t="shared" si="0"/>
-        <v>57.457357116000004</v>
-      </c>
-      <c r="N3" s="18">
+        <v>55.559957116</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
-        <v>60.645141516000002</v>
+        <v>58.565141515999997</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
         <f t="shared" ref="D4:N8" si="1">$B$1+(D$2*$B$2)+($B$3*12)+($B$4*$C4)+($B$5*D$2*12)+($B$6*D$2*$C4)+($B$7*12*$C4)+($B$8*D$2*12*$C4)</f>
-        <v>29.021297515999997</v>
-      </c>
-      <c r="E4" s="18">
-        <f t="shared" si="1"/>
-        <v>32.391681916000003</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="1"/>
-        <v>35.762066316000009</v>
-      </c>
-      <c r="G4" s="18">
-        <f t="shared" si="1"/>
-        <v>39.132450716000001</v>
-      </c>
-      <c r="H4" s="18">
-        <f t="shared" si="1"/>
-        <v>42.502835115999993</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" si="1"/>
-        <v>45.873219515999999</v>
-      </c>
-      <c r="J4" s="18">
-        <f t="shared" si="1"/>
-        <v>49.243603915999998</v>
-      </c>
-      <c r="K4" s="18">
-        <f t="shared" si="1"/>
-        <v>52.613988316000004</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="1"/>
-        <v>55.984372716000003</v>
-      </c>
-      <c r="M4" s="18">
-        <f t="shared" si="1"/>
-        <v>59.354757116000002</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" si="1"/>
-        <v>62.725141516000001</v>
+        <v>28.767297515999999</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>31.955081916000001</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="1"/>
+        <v>35.14286631600001</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>38.330650716000001</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="1"/>
+        <v>41.518435115999999</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="1"/>
+        <v>44.706219515999997</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="1"/>
+        <v>47.894003915999996</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="1"/>
+        <v>51.081788316000001</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="1"/>
+        <v>54.269572715999999</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="1"/>
+        <v>57.457357116000004</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" si="1"/>
+        <v>60.645141516000002</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="35" x14ac:dyDescent="0.45">
@@ -5420,52 +5521,52 @@
       <c r="B5" s="5">
         <v>8.9847099999999999E-2</v>
       </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="shared" si="1"/>
-        <v>29.275297515999998</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="1"/>
-        <v>32.828281915999995</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="1"/>
-        <v>36.381266316000001</v>
-      </c>
-      <c r="G5" s="18">
-        <f t="shared" si="1"/>
-        <v>39.934250716000001</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
-        <v>43.487235116000001</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="1"/>
-        <v>47.040219516000001</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="1"/>
-        <v>50.593203915999993</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="1"/>
-        <v>54.146188316</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="1"/>
-        <v>57.699172716</v>
-      </c>
-      <c r="M5" s="18">
-        <f t="shared" si="1"/>
-        <v>61.252157115999999</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
-        <v>64.805141515999992</v>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="1"/>
+        <v>29.021297515999997</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="1"/>
+        <v>32.391681916000003</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>35.762066316000009</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>39.132450716000001</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
+        <v>42.502835115999993</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="1"/>
+        <v>45.873219515999999</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="1"/>
+        <v>49.243603915999998</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="1"/>
+        <v>52.613988316000004</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
+        <v>55.984372716000003</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>59.354757116000002</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
+        <v>62.725141516000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="35" x14ac:dyDescent="0.45">
@@ -5475,107 +5576,107 @@
       <c r="B6" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="shared" si="1"/>
-        <v>29.529297515999996</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="1"/>
-        <v>33.264881916</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="1"/>
-        <v>37.000466316000001</v>
-      </c>
-      <c r="G6" s="18">
-        <f t="shared" si="1"/>
-        <v>40.736050716000001</v>
-      </c>
-      <c r="H6" s="18">
-        <f t="shared" si="1"/>
-        <v>44.471635116000002</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="1"/>
-        <v>48.207219516000002</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="1"/>
-        <v>51.942803915999995</v>
-      </c>
-      <c r="K6" s="18">
-        <f t="shared" si="1"/>
-        <v>55.678388315999996</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>59.413972715999989</v>
-      </c>
-      <c r="M6" s="18">
-        <f t="shared" si="1"/>
-        <v>63.149557115999997</v>
-      </c>
-      <c r="N6" s="18">
-        <f t="shared" si="1"/>
-        <v>66.88514151599999</v>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="1"/>
+        <v>29.275297515999998</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="1"/>
+        <v>32.828281915999995</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>36.381266316000001</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>39.934250716000001</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
+        <v>43.487235116000001</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>47.040219516000001</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>50.593203915999993</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="1"/>
+        <v>54.146188316</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>57.699172716</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>61.252157115999999</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
+        <v>64.805141515999992</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>1.9E-2</v>
       </c>
-      <c r="C7" s="15">
-        <v>5</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="shared" si="1"/>
-        <v>29.783297515999998</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" si="1"/>
-        <v>33.701481915999999</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="1"/>
-        <v>37.619666316000007</v>
-      </c>
-      <c r="G7" s="18">
-        <f t="shared" si="1"/>
-        <v>41.537850716000001</v>
-      </c>
-      <c r="H7" s="18">
-        <f t="shared" si="1"/>
-        <v>45.456035115999995</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>49.374219515999997</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" si="1"/>
-        <v>53.292403915999991</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" si="1"/>
-        <v>57.210588315999999</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="1"/>
-        <v>61.128772716</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" si="1"/>
-        <v>65.046957116000002</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" si="1"/>
-        <v>68.965141516000003</v>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="1"/>
+        <v>29.529297515999996</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="1"/>
+        <v>33.264881916</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>37.000466316000001</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>40.736050716000001</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>44.471635116000002</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>48.207219516000002</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="1"/>
+        <v>51.942803915999995</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="1"/>
+        <v>55.678388315999996</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
+        <v>59.413972715999989</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>63.149557115999997</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
+        <v>66.88514151599999</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.5" x14ac:dyDescent="0.5">
@@ -5585,456 +5686,456 @@
       <c r="B8" s="11">
         <v>1.23E-2</v>
       </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" si="1"/>
-        <v>30.037297515999995</v>
-      </c>
-      <c r="E8" s="18">
-        <f t="shared" si="1"/>
-        <v>34.138081915999997</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="1"/>
-        <v>38.238866316000006</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" si="1"/>
-        <v>42.339650716000001</v>
-      </c>
-      <c r="H8" s="18">
-        <f t="shared" si="1"/>
-        <v>46.440435115999996</v>
-      </c>
-      <c r="I8" s="18">
-        <f t="shared" si="1"/>
-        <v>50.541219515999991</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="1"/>
-        <v>54.642003915999993</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="1"/>
-        <v>58.742788315999995</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="1"/>
-        <v>62.843572715999997</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="1"/>
-        <v>66.944357116000006</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="1"/>
-        <v>71.045141516000001</v>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="1"/>
+        <v>29.783297515999998</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="1"/>
+        <v>33.701481915999999</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>37.619666316000007</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>41.537850716000001</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="1"/>
+        <v>45.456035115999995</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="1"/>
+        <v>49.374219515999997</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="1"/>
+        <v>53.292403915999991</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="1"/>
+        <v>57.210588315999999</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
+        <v>61.128772716</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>65.046957116000002</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
+        <v>68.965141516000003</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <f>($B$6)+(12*$B$8)</f>
         <v>0.18260000000000001</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22">
         <f>E11-D11</f>
+        <v>0.18260000000000076</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10:N10" si="2">F11-E11</f>
         <v>0.18260000000000431</v>
       </c>
-      <c r="F10" s="23">
-        <f t="shared" ref="F10:N10" si="2">F11-E11</f>
-        <v>0.18259999999999721</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>0.18259999999999366</v>
+      </c>
+      <c r="H10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000076</v>
       </c>
-      <c r="H10" s="23">
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>0.18259999999999366</v>
       </c>
-      <c r="I10" s="23">
+      <c r="J10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000787</v>
       </c>
-      <c r="J10" s="23">
+      <c r="K10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000076</v>
       </c>
-      <c r="K10" s="23">
+      <c r="L10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000076</v>
       </c>
-      <c r="L10" s="23">
+      <c r="M10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000076</v>
       </c>
-      <c r="M10" s="23">
-        <f t="shared" si="2"/>
-        <v>0.18259999999999366</v>
-      </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <f t="shared" si="2"/>
         <v>0.18260000000000076</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26">
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25">
         <f t="shared" ref="D11:N11" si="3">D4-D3</f>
-        <v>0.25399999999999778</v>
-      </c>
-      <c r="E11" s="25">
+        <v>0.25400000000000134</v>
+      </c>
+      <c r="E11" s="24">
         <f t="shared" si="3"/>
         <v>0.4366000000000021</v>
       </c>
-      <c r="F11" s="25">
-        <f t="shared" si="3"/>
-        <v>0.61919999999999931</v>
-      </c>
-      <c r="G11" s="25">
+      <c r="F11" s="24">
+        <f t="shared" si="3"/>
+        <v>0.61920000000000641</v>
+      </c>
+      <c r="G11" s="24">
         <f t="shared" si="3"/>
         <v>0.80180000000000007</v>
       </c>
-      <c r="H11" s="25">
-        <f t="shared" si="3"/>
-        <v>0.98439999999999372</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="3"/>
-        <v>1.1670000000000016</v>
-      </c>
-      <c r="J11" s="25">
+      <c r="H11" s="24">
+        <f t="shared" si="3"/>
+        <v>0.98440000000000083</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="3"/>
+        <v>1.1669999999999945</v>
+      </c>
+      <c r="J11" s="24">
         <f t="shared" si="3"/>
         <v>1.3496000000000024</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <f t="shared" si="3"/>
         <v>1.5322000000000031</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <f t="shared" si="3"/>
         <v>1.7148000000000039</v>
       </c>
-      <c r="M11" s="25">
-        <f t="shared" si="3"/>
-        <v>1.8973999999999975</v>
-      </c>
-      <c r="N11" s="25">
-        <f t="shared" si="3"/>
-        <v>2.0799999999999983</v>
+      <c r="M11" s="24">
+        <f t="shared" si="3"/>
+        <v>1.8974000000000046</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="3"/>
+        <v>2.0800000000000054</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A12" s="12"/>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <f t="shared" ref="B12:B17" si="4">$B$2+(12*$B$5)+($C3*$B$6)+(12*$C3*$B$8)</f>
+        <v>3.0051844000000001</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:N12" si="5">E3-D3</f>
+        <v>3.005184400000001</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051844000000045</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051843999999974</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051843999999974</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051844000000045</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051843999999903</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051844000000045</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051843999999974</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051844000000045</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="5"/>
+        <v>3.0051843999999974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B13" s="19">
+        <f t="shared" si="4"/>
         <v>3.1877844000000004</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20">
-        <f t="shared" ref="E12:N12" si="5">E3-D3</f>
+      <c r="C13" s="19">
+        <f>B13-B12</f>
+        <v>0.18260000000000032</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21">
+        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
         <v>3.1877844000000017</v>
       </c>
-      <c r="F12" s="20">
-        <f t="shared" si="5"/>
+      <c r="F13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877844000000088</v>
       </c>
-      <c r="G12" s="20">
-        <f t="shared" si="5"/>
+      <c r="G13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999911</v>
       </c>
-      <c r="H12" s="20">
-        <f t="shared" si="5"/>
+      <c r="H13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999982</v>
       </c>
-      <c r="I12" s="20">
-        <f t="shared" si="5"/>
+      <c r="I13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999982</v>
       </c>
-      <c r="J12" s="20">
-        <f t="shared" si="5"/>
+      <c r="J13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999982</v>
       </c>
-      <c r="K12" s="20">
-        <f t="shared" si="5"/>
+      <c r="K13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877844000000053</v>
       </c>
-      <c r="L12" s="20">
-        <f t="shared" si="5"/>
+      <c r="L13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999982</v>
       </c>
-      <c r="M12" s="20">
-        <f t="shared" si="5"/>
+      <c r="M13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877844000000053</v>
       </c>
-      <c r="N12" s="20">
-        <f t="shared" si="5"/>
+      <c r="N13" s="21">
+        <f t="shared" si="6"/>
         <v>3.1877843999999982</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B13" s="20">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B14" s="19">
         <f t="shared" si="4"/>
         <v>3.3703843999999998</v>
       </c>
-      <c r="C13" s="20">
-        <f>B13-B12</f>
+      <c r="C14" s="19">
+        <f>B14-B13</f>
         <v>0.18259999999999943</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22">
-        <f t="shared" ref="E13:N13" si="6">E4-D4</f>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21">
+        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
         <v>3.3703844000000061</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" si="6"/>
+      <c r="F14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703844000000061</v>
       </c>
-      <c r="G13" s="22">
-        <f t="shared" si="6"/>
+      <c r="G14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999918</v>
       </c>
-      <c r="H13" s="22">
-        <f t="shared" si="6"/>
+      <c r="H14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999918</v>
       </c>
-      <c r="I13" s="22">
-        <f t="shared" si="6"/>
+      <c r="I14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703844000000061</v>
       </c>
-      <c r="J13" s="22">
-        <f t="shared" si="6"/>
+      <c r="J14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999989</v>
       </c>
-      <c r="K13" s="22">
-        <f t="shared" si="6"/>
+      <c r="K14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703844000000061</v>
       </c>
-      <c r="L13" s="22">
-        <f t="shared" si="6"/>
+      <c r="L14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999989</v>
       </c>
-      <c r="M13" s="22">
-        <f t="shared" si="6"/>
+      <c r="M14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999989</v>
       </c>
-      <c r="N13" s="22">
-        <f t="shared" si="6"/>
+      <c r="N14" s="21">
+        <f t="shared" si="7"/>
         <v>3.3703843999999989</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B14" s="20">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B15" s="19">
         <f t="shared" si="4"/>
         <v>3.5529844000000002</v>
       </c>
-      <c r="C14" s="20">
-        <f>B14-B13</f>
-        <v>0.18260000000000032</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:N14" si="7">E5-D5</f>
-        <v>3.5529843999999962</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529844000000068</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999997</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999997</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999997</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999926</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529844000000068</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999997</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999997</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="7"/>
-        <v>3.5529843999999926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B15" s="20">
-        <f t="shared" si="4"/>
-        <v>3.7355844000000005</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <f t="shared" ref="C15:C17" si="8">B15-B14</f>
         <v>0.18260000000000032</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22">
+      <c r="D15" s="20"/>
+      <c r="E15" s="21">
         <f t="shared" ref="E15:N15" si="9">E6-D6</f>
+        <v>3.5529843999999962</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529844000000068</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999997</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999997</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999997</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999926</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529844000000068</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999997</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999997</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="9"/>
+        <v>3.5529843999999926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="B16" s="19">
+        <f t="shared" si="4"/>
+        <v>3.7355844000000005</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="8"/>
+        <v>0.18260000000000032</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21">
+        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
         <v>3.735584400000004</v>
       </c>
-      <c r="F15" s="22">
-        <f t="shared" si="9"/>
+      <c r="F16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000005</v>
       </c>
-      <c r="G15" s="22">
-        <f t="shared" si="9"/>
+      <c r="G16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000005</v>
       </c>
-      <c r="H15" s="22">
-        <f t="shared" si="9"/>
+      <c r="H16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000005</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="9"/>
+      <c r="I16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000005</v>
       </c>
-      <c r="J15" s="22">
-        <f t="shared" si="9"/>
+      <c r="J16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355843999999934</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" si="9"/>
+      <c r="K16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000005</v>
       </c>
-      <c r="L15" s="22">
-        <f t="shared" si="9"/>
+      <c r="L16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355843999999934</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" si="9"/>
+      <c r="M16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355844000000076</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" si="9"/>
+      <c r="N16" s="21">
+        <f t="shared" si="10"/>
         <v>3.7355843999999934</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="B16" s="20">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="19">
         <f t="shared" si="4"/>
         <v>3.9181843999999999</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="8"/>
         <v>0.18259999999999943</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22">
-        <f t="shared" ref="E16:N16" si="10">E7-D7</f>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
         <v>3.9181844000000012</v>
       </c>
-      <c r="F16" s="22">
-        <f t="shared" si="10"/>
+      <c r="F17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000083</v>
       </c>
-      <c r="G16" s="22">
-        <f t="shared" si="10"/>
+      <c r="G17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181843999999941</v>
       </c>
-      <c r="H16" s="22">
-        <f t="shared" si="10"/>
+      <c r="H17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181843999999941</v>
       </c>
-      <c r="I16" s="22">
-        <f t="shared" si="10"/>
+      <c r="I17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000012</v>
       </c>
-      <c r="J16" s="22">
-        <f t="shared" si="10"/>
+      <c r="J17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181843999999941</v>
       </c>
-      <c r="K16" s="22">
-        <f t="shared" si="10"/>
+      <c r="K17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000083</v>
       </c>
-      <c r="L16" s="22">
-        <f t="shared" si="10"/>
+      <c r="L17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000012</v>
       </c>
-      <c r="M16" s="22">
-        <f t="shared" si="10"/>
+      <c r="M17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000012</v>
       </c>
-      <c r="N16" s="22">
-        <f t="shared" si="10"/>
+      <c r="N17" s="21">
+        <f t="shared" si="11"/>
         <v>3.9181844000000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="20">
-        <f t="shared" si="4"/>
-        <v>4.1007844000000002</v>
-      </c>
-      <c r="C17" s="20">
-        <f t="shared" si="8"/>
-        <v>0.18260000000000032</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22">
-        <f t="shared" ref="E17:N17" si="11">E8-D8</f>
-        <v>4.100784400000002</v>
-      </c>
-      <c r="F17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007844000000091</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007843999999949</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007843999999949</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007843999999949</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.100784400000002</v>
-      </c>
-      <c r="K17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.100784400000002</v>
-      </c>
-      <c r="L17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.100784400000002</v>
-      </c>
-      <c r="M17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007844000000091</v>
-      </c>
-      <c r="N17" s="22">
-        <f t="shared" si="11"/>
-        <v>4.1007843999999949</v>
       </c>
     </row>
   </sheetData>
